--- a/Chatbot/Eventlist.xlsx
+++ b/Chatbot/Eventlist.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>index</t>
   </si>
@@ -59,30 +67,65 @@
   </si>
   <si>
     <t>Practice</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Systems Workshop</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Intelligence Talk</t>
+  </si>
+  <si>
+    <t>Excellence Talks</t>
+  </si>
+  <si>
+    <t>Android Dev</t>
+  </si>
+  <si>
+    <t>General Discussion</t>
+  </si>
+  <si>
+    <t>Dev Talk</t>
+  </si>
+  <si>
+    <t>Discussion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="165" formatCode="h:mm am/pm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,54 +133,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -327,20 +359,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -366,18 +403,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>44143.0</v>
+        <v>44143</v>
       </c>
       <c r="D2" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -392,15 +429,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6">
-        <v>44145.0</v>
+        <v>44145</v>
       </c>
       <c r="D3" s="7">
         <v>0.75</v>
@@ -418,11 +455,198 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44151</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8">
+        <v>44153</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44158</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>44163</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8">
+        <v>44167</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44174</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8">
+        <v>44178</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H2"/>
-    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>